--- a/docs/base_de_donnees_materiaux/bdd_materiaux_v4.0.xlsx
+++ b/docs/base_de_donnees_materiaux/bdd_materiaux_v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Présentation" sheetId="4" r:id="rId1"/>
@@ -2527,39 +2527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2594,6 +2561,39 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Heading 2b" xfId="6"/>
@@ -2608,65 +2608,6 @@
     <cellStyle name="Titre 4 2" xfId="7"/>
   </cellStyles>
   <dxfs count="81">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="5"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2844,6 +2785,40 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="5"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3033,6 +3008,31 @@
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3436,21 +3436,21 @@
       <calculatedColumnFormula>IF(AM6&lt;0.4,1,IF(AM6&lt;0.7,2,3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Traitement thermique" dataDxfId="55"/>
-    <tableColumn id="13" name="Aptitude au traitement thermique" dataDxfId="6"/>
-    <tableColumn id="28" name="Résistance à la corrosion" dataDxfId="4"/>
-    <tableColumn id="14" name="C" dataDxfId="5"/>
-    <tableColumn id="15" name="Si" dataDxfId="54"/>
-    <tableColumn id="16" name="Mn" dataDxfId="53"/>
-    <tableColumn id="17" name="P" dataDxfId="52"/>
-    <tableColumn id="18" name="S" dataDxfId="51"/>
-    <tableColumn id="19" name="N" dataDxfId="50"/>
-    <tableColumn id="20" name="Cr" dataDxfId="49"/>
-    <tableColumn id="21" name="Mo" dataDxfId="48"/>
-    <tableColumn id="22" name="Ni" dataDxfId="47"/>
-    <tableColumn id="23" name="Pb" dataDxfId="46"/>
-    <tableColumn id="24" name="B" dataDxfId="45"/>
-    <tableColumn id="25" name="V" dataDxfId="44"/>
-    <tableColumn id="26" name="Ceq" dataDxfId="43">
+    <tableColumn id="13" name="Aptitude au traitement thermique" dataDxfId="54"/>
+    <tableColumn id="28" name="Résistance à la corrosion" dataDxfId="53"/>
+    <tableColumn id="14" name="C" dataDxfId="52"/>
+    <tableColumn id="15" name="Si" dataDxfId="51"/>
+    <tableColumn id="16" name="Mn" dataDxfId="50"/>
+    <tableColumn id="17" name="P" dataDxfId="49"/>
+    <tableColumn id="18" name="S" dataDxfId="48"/>
+    <tableColumn id="19" name="N" dataDxfId="47"/>
+    <tableColumn id="20" name="Cr" dataDxfId="46"/>
+    <tableColumn id="21" name="Mo" dataDxfId="45"/>
+    <tableColumn id="22" name="Ni" dataDxfId="44"/>
+    <tableColumn id="23" name="Pb" dataDxfId="43"/>
+    <tableColumn id="24" name="B" dataDxfId="42"/>
+    <tableColumn id="25" name="V" dataDxfId="41"/>
+    <tableColumn id="26" name="Ceq" dataDxfId="40">
       <calculatedColumnFormula>AA6+AC6/6+(AG6+AH6+AL6)/5+AI6/15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3459,58 +3459,58 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:AL34" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:AL34" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="B5:AL34"/>
   <tableColumns count="37">
-    <tableColumn id="1" name="Famille" dataDxfId="39"/>
-    <tableColumn id="2" name="nuance" dataDxfId="38"/>
-    <tableColumn id="4" name="Numéro" dataDxfId="37"/>
-    <tableColumn id="5" name="Indice prix tonne" dataDxfId="36"/>
-    <tableColumn id="38" name="prix min" dataDxfId="35">
+    <tableColumn id="1" name="Famille" dataDxfId="36"/>
+    <tableColumn id="2" name="nuance" dataDxfId="35"/>
+    <tableColumn id="4" name="Numéro" dataDxfId="34"/>
+    <tableColumn id="5" name="Indice prix tonne" dataDxfId="33"/>
+    <tableColumn id="38" name="prix min" dataDxfId="32">
       <calculatedColumnFormula>IF(J6&lt;&gt;"-",J6*(1-P6),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" name="indice prix" dataDxfId="34">
+    <tableColumn id="37" name="indice prix" dataDxfId="31">
       <calculatedColumnFormula>J6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" name="prix max" dataDxfId="33">
+    <tableColumn id="36" name="prix max" dataDxfId="30">
       <calculatedColumnFormula>IF(J6&lt;&gt;"-",J6*(1+P6),"-")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" name="prix réel 2018" dataDxfId="32">
+    <tableColumn id="35" name="prix réel 2018" dataDxfId="29">
       <calculatedColumnFormula>IF(YEAR(L6)=YEAR(TODAY()),K6,IF(AND(N6=0,K6=0),"-","n/a"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" name="prix estimé 2018" dataDxfId="31">
+    <tableColumn id="33" name="prix estimé 2018" dataDxfId="28">
       <calculatedColumnFormula>IF(K6&lt;&gt;0,(K6*(1+M6)^(YEAR(TODAY())-YEAR(L6))+K6)/2,IF(N6&lt;&gt;0,(N6+O6)/2,"-"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="dernier prix connu" dataDxfId="30"/>
-    <tableColumn id="31" name="date d'application du dernier prix" dataDxfId="29"/>
-    <tableColumn id="30" name="taux d'inflation" dataDxfId="3" dataCellStyle="Pourcentage"/>
-    <tableColumn id="29" name="prix min internet" dataDxfId="2"/>
-    <tableColumn id="28" name="prix max internet" dataDxfId="0"/>
-    <tableColumn id="3" name="incertitude prix" dataDxfId="1" dataCellStyle="Pourcentage">
+    <tableColumn id="32" name="dernier prix connu" dataDxfId="27"/>
+    <tableColumn id="31" name="date d'application du dernier prix" dataDxfId="26"/>
+    <tableColumn id="30" name="taux d'inflation" dataDxfId="25" dataCellStyle="Pourcentage"/>
+    <tableColumn id="29" name="prix min internet" dataDxfId="24"/>
+    <tableColumn id="28" name="prix max internet" dataDxfId="23"/>
+    <tableColumn id="3" name="incertitude prix" dataDxfId="22" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>IF(N6&lt;&gt;0,(O6-N6)/(N6+O6),IF(K6&lt;&gt;0,((1+M6)^(YEAR(TODAY())-YEAR(L6))-1)/((1+M6)^(YEAR(TODAY())-YEAR(L6))+1),"-"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Usinabilité" dataDxfId="28"/>
-    <tableColumn id="7" name="% outillage" dataDxfId="27"/>
-    <tableColumn id="8" name="Dureté en Hb" dataDxfId="26"/>
-    <tableColumn id="9" name="Rm en Mpa" dataDxfId="25"/>
-    <tableColumn id="10" name="Rp0.2 en Mpa" dataDxfId="24"/>
-    <tableColumn id="11" name="A% " dataDxfId="23"/>
-    <tableColumn id="12" name="Aptitude à la soudure" dataDxfId="22"/>
-    <tableColumn id="13" name="Traitement thermique" dataDxfId="21"/>
-    <tableColumn id="14" name="Aptitude au traitement thermique" dataDxfId="20"/>
-    <tableColumn id="15" name="résistance à la corrosion" dataDxfId="19"/>
-    <tableColumn id="16" name="C" dataDxfId="18"/>
-    <tableColumn id="17" name="Si" dataDxfId="17"/>
-    <tableColumn id="18" name="Mn" dataDxfId="16"/>
-    <tableColumn id="19" name="P" dataDxfId="15"/>
-    <tableColumn id="20" name="S" dataDxfId="14"/>
-    <tableColumn id="21" name="N" dataDxfId="13"/>
-    <tableColumn id="22" name="Cr" dataDxfId="12"/>
-    <tableColumn id="23" name="Mo" dataDxfId="11"/>
-    <tableColumn id="24" name="Ni" dataDxfId="10"/>
-    <tableColumn id="25" name="Pb" dataDxfId="9"/>
-    <tableColumn id="26" name="B" dataDxfId="8"/>
-    <tableColumn id="27" name="V" dataDxfId="7"/>
+    <tableColumn id="6" name="Usinabilité" dataDxfId="21"/>
+    <tableColumn id="7" name="% outillage" dataDxfId="20"/>
+    <tableColumn id="8" name="Dureté en Hb" dataDxfId="19"/>
+    <tableColumn id="9" name="Rm en Mpa" dataDxfId="18"/>
+    <tableColumn id="10" name="Rp0.2 en Mpa" dataDxfId="17"/>
+    <tableColumn id="11" name="A% " dataDxfId="16"/>
+    <tableColumn id="12" name="Aptitude à la soudure" dataDxfId="15"/>
+    <tableColumn id="13" name="Traitement thermique" dataDxfId="14"/>
+    <tableColumn id="14" name="Aptitude au traitement thermique" dataDxfId="13"/>
+    <tableColumn id="15" name="résistance à la corrosion" dataDxfId="12"/>
+    <tableColumn id="16" name="C" dataDxfId="11"/>
+    <tableColumn id="17" name="Si" dataDxfId="10"/>
+    <tableColumn id="18" name="Mn" dataDxfId="9"/>
+    <tableColumn id="19" name="P" dataDxfId="8"/>
+    <tableColumn id="20" name="S" dataDxfId="7"/>
+    <tableColumn id="21" name="N" dataDxfId="6"/>
+    <tableColumn id="22" name="Cr" dataDxfId="5"/>
+    <tableColumn id="23" name="Mo" dataDxfId="4"/>
+    <tableColumn id="24" name="Ni" dataDxfId="3"/>
+    <tableColumn id="25" name="Pb" dataDxfId="2"/>
+    <tableColumn id="26" name="B" dataDxfId="1"/>
+    <tableColumn id="27" name="V" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3826,245 +3826,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="309" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="293"/>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
+      <c r="A2" s="309"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309"/>
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="293"/>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
+      <c r="A3" s="309"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309"/>
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="293"/>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
+      <c r="A4" s="309"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309"/>
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="293"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
+      <c r="A5" s="309"/>
+      <c r="B5" s="309"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="309"/>
+      <c r="E5" s="309"/>
+      <c r="F5" s="309"/>
+      <c r="G5" s="309"/>
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="293"/>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
+      <c r="A6" s="309"/>
+      <c r="B6" s="309"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="309"/>
+      <c r="E6" s="309"/>
+      <c r="F6" s="309"/>
+      <c r="G6" s="309"/>
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="293"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="293"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
     </row>
     <row r="8" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="293"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="293"/>
-      <c r="G8" s="293"/>
-      <c r="H8" s="293"/>
-      <c r="I8" s="293"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="310" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="294"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="294"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="294"/>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
+      <c r="I9" s="310"/>
     </row>
     <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="294"/>
-      <c r="B10" s="294"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="294"/>
-      <c r="G10" s="294"/>
-      <c r="H10" s="294"/>
-      <c r="I10" s="294"/>
+      <c r="A10" s="310"/>
+      <c r="B10" s="310"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="310"/>
+      <c r="F10" s="310"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="310"/>
+      <c r="I10" s="310"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="295" t="s">
+      <c r="A11" s="311" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="295"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
-      <c r="H11" s="295"/>
-      <c r="I11" s="295"/>
+      <c r="B11" s="311"/>
+      <c r="C11" s="311"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="311"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="311"/>
+      <c r="I11" s="311"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="295"/>
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
-      <c r="H12" s="295"/>
-      <c r="I12" s="295"/>
+      <c r="A12" s="311"/>
+      <c r="B12" s="311"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="311"/>
+      <c r="H12" s="311"/>
+      <c r="I12" s="311"/>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="295"/>
-      <c r="B13" s="295"/>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="311"/>
+      <c r="E13" s="311"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="311"/>
+      <c r="H13" s="311"/>
+      <c r="I13" s="311"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="295" t="s">
+      <c r="A14" s="311" t="s">
         <v>239</v>
       </c>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
+      <c r="B14" s="311"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="311"/>
+      <c r="I14" s="311"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="295"/>
-      <c r="B15" s="295"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="295"/>
+      <c r="A15" s="311"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
+      <c r="I15" s="311"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="295"/>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="295"/>
-      <c r="I16" s="295"/>
+      <c r="A16" s="311"/>
+      <c r="B16" s="311"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="311"/>
+      <c r="E16" s="311"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="311"/>
+      <c r="H16" s="311"/>
+      <c r="I16" s="311"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="296" t="s">
+      <c r="A17" s="312" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="296"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="296"/>
-      <c r="I17" s="296"/>
+      <c r="B17" s="312"/>
+      <c r="C17" s="312"/>
+      <c r="D17" s="312"/>
+      <c r="E17" s="312"/>
+      <c r="F17" s="312"/>
+      <c r="G17" s="312"/>
+      <c r="H17" s="312"/>
+      <c r="I17" s="312"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="296"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="296"/>
-      <c r="I18" s="296"/>
+      <c r="A18" s="312"/>
+      <c r="B18" s="312"/>
+      <c r="C18" s="312"/>
+      <c r="D18" s="312"/>
+      <c r="E18" s="312"/>
+      <c r="F18" s="312"/>
+      <c r="G18" s="312"/>
+      <c r="H18" s="312"/>
+      <c r="I18" s="312"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="296"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
+      <c r="A19" s="312"/>
+      <c r="B19" s="312"/>
+      <c r="C19" s="312"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
+      <c r="F19" s="312"/>
+      <c r="G19" s="312"/>
+      <c r="H19" s="312"/>
+      <c r="I19" s="312"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="296"/>
-      <c r="B20" s="296"/>
-      <c r="C20" s="296"/>
-      <c r="D20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
-      <c r="H20" s="296"/>
-      <c r="I20" s="296"/>
+      <c r="A20" s="312"/>
+      <c r="B20" s="312"/>
+      <c r="C20" s="312"/>
+      <c r="D20" s="312"/>
+      <c r="E20" s="312"/>
+      <c r="F20" s="312"/>
+      <c r="G20" s="312"/>
+      <c r="H20" s="312"/>
+      <c r="I20" s="312"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="296"/>
-      <c r="B21" s="296"/>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="296"/>
-      <c r="I21" s="296"/>
+      <c r="A21" s="312"/>
+      <c r="B21" s="312"/>
+      <c r="C21" s="312"/>
+      <c r="D21" s="312"/>
+      <c r="E21" s="312"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="312"/>
+      <c r="H21" s="312"/>
+      <c r="I21" s="312"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4085,12 +4085,12 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="B1:AN79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="G62" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N80" sqref="N80"/>
+      <selection pane="bottomRight" activeCell="AM63" sqref="AM63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4128,36 +4128,36 @@
         <v>169</v>
       </c>
       <c r="R3"/>
-      <c r="AA3" s="297" t="s">
+      <c r="AA3" s="313" t="s">
         <v>159</v>
       </c>
-      <c r="AB3" s="297"/>
-      <c r="AC3" s="297"/>
-      <c r="AD3" s="297"/>
-      <c r="AE3" s="297"/>
-      <c r="AF3" s="297"/>
-      <c r="AG3" s="297"/>
-      <c r="AH3" s="297"/>
-      <c r="AI3" s="297"/>
-      <c r="AJ3" s="297"/>
-      <c r="AK3" s="297"/>
-      <c r="AL3" s="297"/>
-      <c r="AM3" s="297"/>
+      <c r="AB3" s="313"/>
+      <c r="AC3" s="313"/>
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
+      <c r="AF3" s="313"/>
+      <c r="AG3" s="313"/>
+      <c r="AH3" s="313"/>
+      <c r="AI3" s="313"/>
+      <c r="AJ3" s="313"/>
+      <c r="AK3" s="313"/>
+      <c r="AL3" s="313"/>
+      <c r="AM3" s="313"/>
     </row>
     <row r="4" spans="2:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="298"/>
-      <c r="AK4" s="298"/>
-      <c r="AL4" s="298"/>
-      <c r="AM4" s="298"/>
+      <c r="AA4" s="314"/>
+      <c r="AB4" s="314"/>
+      <c r="AC4" s="314"/>
+      <c r="AD4" s="314"/>
+      <c r="AE4" s="314"/>
+      <c r="AF4" s="314"/>
+      <c r="AG4" s="314"/>
+      <c r="AH4" s="314"/>
+      <c r="AI4" s="314"/>
+      <c r="AJ4" s="314"/>
+      <c r="AK4" s="314"/>
+      <c r="AL4" s="314"/>
+      <c r="AM4" s="314"/>
     </row>
     <row r="5" spans="2:40" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="288" t="s">
@@ -4425,10 +4425,10 @@
       <c r="K7" s="10"/>
       <c r="L7" s="212"/>
       <c r="M7" s="77"/>
-      <c r="N7" s="304">
+      <c r="N7" s="293">
         <v>500</v>
       </c>
-      <c r="O7" s="304">
+      <c r="O7" s="293">
         <v>1000</v>
       </c>
       <c r="P7" s="244">
@@ -4540,10 +4540,10 @@
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="78"/>
-      <c r="N8" s="305">
+      <c r="N8" s="294">
         <v>500</v>
       </c>
-      <c r="O8" s="305">
+      <c r="O8" s="294">
         <v>1000</v>
       </c>
       <c r="P8" s="243">
@@ -4655,10 +4655,10 @@
       <c r="K9" s="10"/>
       <c r="L9" s="212"/>
       <c r="M9" s="77"/>
-      <c r="N9" s="305">
+      <c r="N9" s="294">
         <v>500</v>
       </c>
-      <c r="O9" s="305">
+      <c r="O9" s="294">
         <v>1000</v>
       </c>
       <c r="P9" s="244">
@@ -4770,10 +4770,10 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="78"/>
-      <c r="N10" s="305">
+      <c r="N10" s="294">
         <v>500</v>
       </c>
-      <c r="O10" s="305">
+      <c r="O10" s="294">
         <v>1000</v>
       </c>
       <c r="P10" s="243">
@@ -4885,10 +4885,10 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="77"/>
-      <c r="N11" s="305">
+      <c r="N11" s="294">
         <v>500</v>
       </c>
-      <c r="O11" s="305">
+      <c r="O11" s="294">
         <v>1000</v>
       </c>
       <c r="P11" s="244">
@@ -6487,10 +6487,10 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="224"/>
-      <c r="N25" s="306">
+      <c r="N25" s="295">
         <v>500</v>
       </c>
-      <c r="O25" s="306">
+      <c r="O25" s="295">
         <v>1000</v>
       </c>
       <c r="P25" s="247">
@@ -6602,10 +6602,10 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
       <c r="M26" s="225"/>
-      <c r="N26" s="306">
+      <c r="N26" s="295">
         <v>500</v>
       </c>
-      <c r="O26" s="306">
+      <c r="O26" s="295">
         <v>1000</v>
       </c>
       <c r="P26" s="248">
@@ -6717,10 +6717,10 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="224"/>
-      <c r="N27" s="306">
+      <c r="N27" s="295">
         <v>500</v>
       </c>
-      <c r="O27" s="306">
+      <c r="O27" s="295">
         <v>1000</v>
       </c>
       <c r="P27" s="247">
@@ -7062,10 +7062,10 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="225"/>
-      <c r="N30" s="307">
+      <c r="N30" s="296">
         <v>500</v>
       </c>
-      <c r="O30" s="307">
+      <c r="O30" s="296">
         <v>1000</v>
       </c>
       <c r="P30" s="248">
@@ -7744,10 +7744,10 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
       <c r="M36" s="225"/>
-      <c r="N36" s="307">
+      <c r="N36" s="296">
         <v>500</v>
       </c>
-      <c r="O36" s="307">
+      <c r="O36" s="296">
         <v>1000</v>
       </c>
       <c r="P36" s="248">
@@ -7859,10 +7859,10 @@
       <c r="K37" s="38"/>
       <c r="L37" s="38"/>
       <c r="M37" s="224"/>
-      <c r="N37" s="307">
+      <c r="N37" s="296">
         <v>500</v>
       </c>
-      <c r="O37" s="307">
+      <c r="O37" s="296">
         <v>1000</v>
       </c>
       <c r="P37" s="247">
@@ -7974,10 +7974,10 @@
       <c r="K38" s="34"/>
       <c r="L38" s="34"/>
       <c r="M38" s="228"/>
-      <c r="N38" s="307">
+      <c r="N38" s="296">
         <v>500</v>
       </c>
-      <c r="O38" s="307">
+      <c r="O38" s="296">
         <v>1000</v>
       </c>
       <c r="P38" s="251">
@@ -8091,10 +8091,10 @@
       <c r="K39" s="45"/>
       <c r="L39" s="45"/>
       <c r="M39" s="229"/>
-      <c r="N39" s="307">
+      <c r="N39" s="296">
         <v>500</v>
       </c>
-      <c r="O39" s="307">
+      <c r="O39" s="296">
         <v>1000</v>
       </c>
       <c r="P39" s="252">
@@ -8206,10 +8206,10 @@
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="230"/>
-      <c r="N40" s="307">
+      <c r="N40" s="296">
         <v>500</v>
       </c>
-      <c r="O40" s="307">
+      <c r="O40" s="296">
         <v>1000</v>
       </c>
       <c r="P40" s="253">
@@ -8321,10 +8321,10 @@
       <c r="K41" s="46"/>
       <c r="L41" s="46"/>
       <c r="M41" s="231"/>
-      <c r="N41" s="307">
+      <c r="N41" s="296">
         <v>500</v>
       </c>
-      <c r="O41" s="307">
+      <c r="O41" s="296">
         <v>1000</v>
       </c>
       <c r="P41" s="254">
@@ -8668,10 +8668,10 @@
       <c r="K44" s="58"/>
       <c r="L44" s="58"/>
       <c r="M44" s="230"/>
-      <c r="N44" s="308">
+      <c r="N44" s="297">
         <v>500</v>
       </c>
-      <c r="O44" s="308">
+      <c r="O44" s="297">
         <v>1000</v>
       </c>
       <c r="P44" s="253">
@@ -8783,10 +8783,10 @@
       <c r="K45" s="46"/>
       <c r="L45" s="46"/>
       <c r="M45" s="231"/>
-      <c r="N45" s="308">
+      <c r="N45" s="297">
         <v>500</v>
       </c>
-      <c r="O45" s="308">
+      <c r="O45" s="297">
         <v>1000</v>
       </c>
       <c r="P45" s="254">
@@ -8898,10 +8898,10 @@
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
       <c r="M46" s="230"/>
-      <c r="N46" s="308">
+      <c r="N46" s="297">
         <v>500</v>
       </c>
-      <c r="O46" s="308">
+      <c r="O46" s="297">
         <v>1000</v>
       </c>
       <c r="P46" s="253">
@@ -9013,10 +9013,10 @@
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
       <c r="M47" s="231"/>
-      <c r="N47" s="308">
+      <c r="N47" s="297">
         <v>500</v>
       </c>
-      <c r="O47" s="308">
+      <c r="O47" s="297">
         <v>1000</v>
       </c>
       <c r="P47" s="254">
@@ -9128,10 +9128,10 @@
       <c r="K48" s="58"/>
       <c r="L48" s="58"/>
       <c r="M48" s="230"/>
-      <c r="N48" s="308">
+      <c r="N48" s="297">
         <v>500</v>
       </c>
-      <c r="O48" s="308">
+      <c r="O48" s="297">
         <v>1000</v>
       </c>
       <c r="P48" s="253">
@@ -9243,10 +9243,10 @@
       <c r="K49" s="54"/>
       <c r="L49" s="54"/>
       <c r="M49" s="232"/>
-      <c r="N49" s="308">
+      <c r="N49" s="297">
         <v>500</v>
       </c>
-      <c r="O49" s="308">
+      <c r="O49" s="297">
         <v>1000</v>
       </c>
       <c r="P49" s="255">
@@ -9360,10 +9360,10 @@
       <c r="K50" s="64"/>
       <c r="L50" s="64"/>
       <c r="M50" s="233"/>
-      <c r="N50" s="308">
+      <c r="N50" s="297">
         <v>500</v>
       </c>
-      <c r="O50" s="308">
+      <c r="O50" s="297">
         <v>1000</v>
       </c>
       <c r="P50" s="256">
@@ -9475,10 +9475,10 @@
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="234"/>
-      <c r="N51" s="308">
+      <c r="N51" s="297">
         <v>500</v>
       </c>
-      <c r="O51" s="308">
+      <c r="O51" s="297">
         <v>1000</v>
       </c>
       <c r="P51" s="257">
@@ -9705,10 +9705,10 @@
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="234"/>
-      <c r="N53" s="309">
+      <c r="N53" s="298">
         <v>500</v>
       </c>
-      <c r="O53" s="309">
+      <c r="O53" s="298">
         <v>1000</v>
       </c>
       <c r="P53" s="257">
@@ -9935,10 +9935,10 @@
       <c r="K55" s="73"/>
       <c r="L55" s="73"/>
       <c r="M55" s="234"/>
-      <c r="N55" s="309">
+      <c r="N55" s="298">
         <v>500</v>
       </c>
-      <c r="O55" s="309">
+      <c r="O55" s="298">
         <v>1000</v>
       </c>
       <c r="P55" s="257">
@@ -10050,10 +10050,10 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="235"/>
-      <c r="N56" s="309">
+      <c r="N56" s="298">
         <v>500</v>
       </c>
-      <c r="O56" s="309">
+      <c r="O56" s="298">
         <v>1000</v>
       </c>
       <c r="P56" s="258">
@@ -10165,10 +10165,10 @@
       <c r="K57" s="73"/>
       <c r="L57" s="73"/>
       <c r="M57" s="234"/>
-      <c r="N57" s="309">
+      <c r="N57" s="298">
         <v>500</v>
       </c>
-      <c r="O57" s="309">
+      <c r="O57" s="298">
         <v>1000</v>
       </c>
       <c r="P57" s="257">
@@ -10395,10 +10395,10 @@
       <c r="K59" s="73"/>
       <c r="L59" s="73"/>
       <c r="M59" s="234"/>
-      <c r="N59" s="309">
+      <c r="N59" s="298">
         <v>500</v>
       </c>
-      <c r="O59" s="309">
+      <c r="O59" s="298">
         <v>1000</v>
       </c>
       <c r="P59" s="257">
@@ -10625,10 +10625,10 @@
       <c r="K61" s="73"/>
       <c r="L61" s="73"/>
       <c r="M61" s="234"/>
-      <c r="N61" s="309">
+      <c r="N61" s="298">
         <v>500</v>
       </c>
-      <c r="O61" s="309">
+      <c r="O61" s="298">
         <v>1000</v>
       </c>
       <c r="P61" s="257">
@@ -10740,10 +10740,10 @@
       <c r="K62" s="65"/>
       <c r="L62" s="65"/>
       <c r="M62" s="235"/>
-      <c r="N62" s="309">
+      <c r="N62" s="298">
         <v>500</v>
       </c>
-      <c r="O62" s="309">
+      <c r="O62" s="298">
         <v>1000</v>
       </c>
       <c r="P62" s="258">
@@ -10855,10 +10855,10 @@
       <c r="K63" s="73"/>
       <c r="L63" s="73"/>
       <c r="M63" s="234"/>
-      <c r="N63" s="309">
+      <c r="N63" s="298">
         <v>500</v>
       </c>
-      <c r="O63" s="309">
+      <c r="O63" s="298">
         <v>1000</v>
       </c>
       <c r="P63" s="257">
@@ -11083,10 +11083,10 @@
       <c r="K65" s="73"/>
       <c r="L65" s="73"/>
       <c r="M65" s="234"/>
-      <c r="N65" s="309">
+      <c r="N65" s="298">
         <v>500</v>
       </c>
-      <c r="O65" s="309">
+      <c r="O65" s="298">
         <v>1000</v>
       </c>
       <c r="P65" s="257">
@@ -11198,10 +11198,10 @@
       <c r="K66" s="65"/>
       <c r="L66" s="65"/>
       <c r="M66" s="235"/>
-      <c r="N66" s="309">
+      <c r="N66" s="298">
         <v>500</v>
       </c>
-      <c r="O66" s="309">
+      <c r="O66" s="298">
         <v>1000</v>
       </c>
       <c r="P66" s="258">
@@ -11313,10 +11313,10 @@
       <c r="K67" s="73"/>
       <c r="L67" s="73"/>
       <c r="M67" s="234"/>
-      <c r="N67" s="309">
+      <c r="N67" s="298">
         <v>500</v>
       </c>
-      <c r="O67" s="309">
+      <c r="O67" s="298">
         <v>1000</v>
       </c>
       <c r="P67" s="257">
@@ -11428,10 +11428,10 @@
       <c r="K68" s="65"/>
       <c r="L68" s="65"/>
       <c r="M68" s="235"/>
-      <c r="N68" s="309">
+      <c r="N68" s="298">
         <v>500</v>
       </c>
-      <c r="O68" s="309">
+      <c r="O68" s="298">
         <v>1000</v>
       </c>
       <c r="P68" s="258">
@@ -11658,10 +11658,10 @@
       <c r="K70" s="65"/>
       <c r="L70" s="65"/>
       <c r="M70" s="235"/>
-      <c r="N70" s="310">
+      <c r="N70" s="299">
         <v>500</v>
       </c>
-      <c r="O70" s="310">
+      <c r="O70" s="299">
         <v>1000</v>
       </c>
       <c r="P70" s="258">
@@ -11773,10 +11773,10 @@
       <c r="K71" s="73"/>
       <c r="L71" s="73"/>
       <c r="M71" s="234"/>
-      <c r="N71" s="310">
+      <c r="N71" s="299">
         <v>500</v>
       </c>
-      <c r="O71" s="310">
+      <c r="O71" s="299">
         <v>1000</v>
       </c>
       <c r="P71" s="257">
@@ -12003,10 +12003,10 @@
       <c r="K73" s="73"/>
       <c r="L73" s="73"/>
       <c r="M73" s="234"/>
-      <c r="N73" s="309">
+      <c r="N73" s="298">
         <v>500</v>
       </c>
-      <c r="O73" s="309">
+      <c r="O73" s="298">
         <v>1000</v>
       </c>
       <c r="P73" s="257">
@@ -12118,10 +12118,10 @@
       <c r="K74" s="65"/>
       <c r="L74" s="65"/>
       <c r="M74" s="235"/>
-      <c r="N74" s="309">
+      <c r="N74" s="298">
         <v>500</v>
       </c>
-      <c r="O74" s="309">
+      <c r="O74" s="298">
         <v>1000</v>
       </c>
       <c r="P74" s="258">
@@ -12233,10 +12233,10 @@
       <c r="K75" s="73"/>
       <c r="L75" s="73"/>
       <c r="M75" s="234"/>
-      <c r="N75" s="309">
+      <c r="N75" s="298">
         <v>500</v>
       </c>
-      <c r="O75" s="309">
+      <c r="O75" s="298">
         <v>1000</v>
       </c>
       <c r="P75" s="257">
@@ -12348,10 +12348,10 @@
       <c r="K76" s="65"/>
       <c r="L76" s="65"/>
       <c r="M76" s="235"/>
-      <c r="N76" s="309">
+      <c r="N76" s="298">
         <v>500</v>
       </c>
-      <c r="O76" s="309">
+      <c r="O76" s="298">
         <v>1000</v>
       </c>
       <c r="P76" s="258">
@@ -12461,10 +12461,10 @@
       <c r="K77" s="73"/>
       <c r="L77" s="73"/>
       <c r="M77" s="234"/>
-      <c r="N77" s="309">
+      <c r="N77" s="298">
         <v>500</v>
       </c>
-      <c r="O77" s="309">
+      <c r="O77" s="298">
         <v>1000</v>
       </c>
       <c r="P77" s="257">
@@ -12679,8 +12679,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="B1:AN71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="Y6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A6" sqref="A6"/>
       <selection pane="topRight" activeCell="A6" sqref="A6"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -12726,35 +12726,35 @@
       </c>
       <c r="D3" s="1"/>
       <c r="S3"/>
-      <c r="AA3" s="299" t="s">
+      <c r="AA3" s="315" t="s">
         <v>159</v>
       </c>
-      <c r="AB3" s="300"/>
-      <c r="AC3" s="300"/>
-      <c r="AD3" s="300"/>
-      <c r="AE3" s="300"/>
-      <c r="AF3" s="300"/>
-      <c r="AG3" s="300"/>
-      <c r="AH3" s="300"/>
-      <c r="AI3" s="300"/>
-      <c r="AJ3" s="300"/>
-      <c r="AK3" s="300"/>
-      <c r="AL3" s="301"/>
+      <c r="AB3" s="316"/>
+      <c r="AC3" s="316"/>
+      <c r="AD3" s="316"/>
+      <c r="AE3" s="316"/>
+      <c r="AF3" s="316"/>
+      <c r="AG3" s="316"/>
+      <c r="AH3" s="316"/>
+      <c r="AI3" s="316"/>
+      <c r="AJ3" s="316"/>
+      <c r="AK3" s="316"/>
+      <c r="AL3" s="317"/>
       <c r="AM3" s="209"/>
     </row>
     <row r="4" spans="2:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AA4" s="302"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="298"/>
-      <c r="AJ4" s="298"/>
-      <c r="AK4" s="298"/>
-      <c r="AL4" s="303"/>
+      <c r="AA4" s="318"/>
+      <c r="AB4" s="314"/>
+      <c r="AC4" s="314"/>
+      <c r="AD4" s="314"/>
+      <c r="AE4" s="314"/>
+      <c r="AF4" s="314"/>
+      <c r="AG4" s="314"/>
+      <c r="AH4" s="314"/>
+      <c r="AI4" s="314"/>
+      <c r="AJ4" s="314"/>
+      <c r="AK4" s="314"/>
+      <c r="AL4" s="319"/>
       <c r="AM4" s="209"/>
     </row>
     <row r="5" spans="2:39" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12905,10 +12905,10 @@
       <c r="K6" s="262"/>
       <c r="L6" s="263"/>
       <c r="M6" s="244"/>
-      <c r="N6" s="312">
+      <c r="N6" s="301">
         <v>500</v>
       </c>
-      <c r="O6" s="312">
+      <c r="O6" s="301">
         <v>1000</v>
       </c>
       <c r="P6" s="244">
@@ -13016,10 +13016,10 @@
       <c r="K7" s="184"/>
       <c r="L7" s="184"/>
       <c r="M7" s="243"/>
-      <c r="N7" s="313">
+      <c r="N7" s="302">
         <v>500</v>
       </c>
-      <c r="O7" s="313">
+      <c r="O7" s="302">
         <v>1000</v>
       </c>
       <c r="P7" s="243">
@@ -13127,10 +13127,10 @@
       <c r="K8" s="262"/>
       <c r="L8" s="262"/>
       <c r="M8" s="244"/>
-      <c r="N8" s="311">
+      <c r="N8" s="300">
         <v>500</v>
       </c>
-      <c r="O8" s="311">
+      <c r="O8" s="300">
         <v>1000</v>
       </c>
       <c r="P8" s="244">
@@ -13237,10 +13237,10 @@
       <c r="K9" s="184"/>
       <c r="L9" s="264"/>
       <c r="M9" s="243"/>
-      <c r="N9" s="313">
+      <c r="N9" s="302">
         <v>500</v>
       </c>
-      <c r="O9" s="313">
+      <c r="O9" s="302">
         <v>1000</v>
       </c>
       <c r="P9" s="243">
@@ -13348,10 +13348,10 @@
       <c r="K10" s="262"/>
       <c r="L10" s="262"/>
       <c r="M10" s="244"/>
-      <c r="N10" s="311">
+      <c r="N10" s="300">
         <v>500</v>
       </c>
-      <c r="O10" s="311">
+      <c r="O10" s="300">
         <v>1000</v>
       </c>
       <c r="P10" s="244">
@@ -13459,10 +13459,10 @@
       <c r="K11" s="184"/>
       <c r="L11" s="184"/>
       <c r="M11" s="243"/>
-      <c r="N11" s="313">
+      <c r="N11" s="302">
         <v>500</v>
       </c>
-      <c r="O11" s="313">
+      <c r="O11" s="302">
         <v>1000</v>
       </c>
       <c r="P11" s="243">
@@ -13570,10 +13570,10 @@
       <c r="K12" s="262"/>
       <c r="L12" s="262"/>
       <c r="M12" s="244"/>
-      <c r="N12" s="311">
+      <c r="N12" s="300">
         <v>500</v>
       </c>
-      <c r="O12" s="311">
+      <c r="O12" s="300">
         <v>1000</v>
       </c>
       <c r="P12" s="244">
@@ -13681,10 +13681,10 @@
       <c r="K13" s="184"/>
       <c r="L13" s="184"/>
       <c r="M13" s="243"/>
-      <c r="N13" s="313">
+      <c r="N13" s="302">
         <v>500</v>
       </c>
-      <c r="O13" s="313">
+      <c r="O13" s="302">
         <v>1000</v>
       </c>
       <c r="P13" s="243">
@@ -13792,10 +13792,10 @@
       <c r="K14" s="262"/>
       <c r="L14" s="262"/>
       <c r="M14" s="244"/>
-      <c r="N14" s="311">
+      <c r="N14" s="300">
         <v>500</v>
       </c>
-      <c r="O14" s="311">
+      <c r="O14" s="300">
         <v>1000</v>
       </c>
       <c r="P14" s="244">
@@ -13903,10 +13903,10 @@
       <c r="K15" s="184"/>
       <c r="L15" s="184"/>
       <c r="M15" s="243"/>
-      <c r="N15" s="313">
+      <c r="N15" s="302">
         <v>500</v>
       </c>
-      <c r="O15" s="313">
+      <c r="O15" s="302">
         <v>1000</v>
       </c>
       <c r="P15" s="243">
@@ -14013,10 +14013,10 @@
       <c r="K16" s="262"/>
       <c r="L16" s="262"/>
       <c r="M16" s="244"/>
-      <c r="N16" s="311">
+      <c r="N16" s="300">
         <v>500</v>
       </c>
-      <c r="O16" s="311">
+      <c r="O16" s="300">
         <v>1000</v>
       </c>
       <c r="P16" s="244">
@@ -14124,10 +14124,10 @@
       <c r="K17" s="184"/>
       <c r="L17" s="184"/>
       <c r="M17" s="243"/>
-      <c r="N17" s="313">
+      <c r="N17" s="302">
         <v>500</v>
       </c>
-      <c r="O17" s="313">
+      <c r="O17" s="302">
         <v>1000</v>
       </c>
       <c r="P17" s="243">
@@ -14235,10 +14235,10 @@
       <c r="K18" s="265"/>
       <c r="L18" s="265"/>
       <c r="M18" s="266"/>
-      <c r="N18" s="311">
+      <c r="N18" s="300">
         <v>500</v>
       </c>
-      <c r="O18" s="311">
+      <c r="O18" s="300">
         <v>1000</v>
       </c>
       <c r="P18" s="266">
@@ -14346,10 +14346,10 @@
       <c r="K19" s="184"/>
       <c r="L19" s="184"/>
       <c r="M19" s="243"/>
-      <c r="N19" s="313">
+      <c r="N19" s="302">
         <v>500</v>
       </c>
-      <c r="O19" s="313">
+      <c r="O19" s="302">
         <v>1000</v>
       </c>
       <c r="P19" s="243">
@@ -14458,10 +14458,10 @@
       <c r="K20" s="267"/>
       <c r="L20" s="267"/>
       <c r="M20" s="246"/>
-      <c r="N20" s="314">
+      <c r="N20" s="303">
         <v>500</v>
       </c>
-      <c r="O20" s="314">
+      <c r="O20" s="303">
         <v>1000</v>
       </c>
       <c r="P20" s="246">
@@ -14568,10 +14568,10 @@
       <c r="K21" s="268"/>
       <c r="L21" s="268"/>
       <c r="M21" s="269"/>
-      <c r="N21" s="315">
+      <c r="N21" s="304">
         <v>500</v>
       </c>
-      <c r="O21" s="315">
+      <c r="O21" s="304">
         <v>1000</v>
       </c>
       <c r="P21" s="269">
@@ -14678,10 +14678,10 @@
       <c r="K22" s="270"/>
       <c r="L22" s="270"/>
       <c r="M22" s="248"/>
-      <c r="N22" s="316">
+      <c r="N22" s="305">
         <v>500</v>
       </c>
-      <c r="O22" s="316">
+      <c r="O22" s="305">
         <v>1000</v>
       </c>
       <c r="P22" s="248">
@@ -14788,10 +14788,10 @@
       <c r="K23" s="268"/>
       <c r="L23" s="268"/>
       <c r="M23" s="269"/>
-      <c r="N23" s="315">
+      <c r="N23" s="304">
         <v>500</v>
       </c>
-      <c r="O23" s="315">
+      <c r="O23" s="304">
         <v>1000</v>
       </c>
       <c r="P23" s="269">
@@ -14898,10 +14898,10 @@
       <c r="K24" s="270"/>
       <c r="L24" s="270"/>
       <c r="M24" s="248"/>
-      <c r="N24" s="316">
+      <c r="N24" s="305">
         <v>500</v>
       </c>
-      <c r="O24" s="316">
+      <c r="O24" s="305">
         <v>1000</v>
       </c>
       <c r="P24" s="248">
@@ -15008,10 +15008,10 @@
       <c r="K25" s="268"/>
       <c r="L25" s="268"/>
       <c r="M25" s="269"/>
-      <c r="N25" s="315">
+      <c r="N25" s="304">
         <v>500</v>
       </c>
-      <c r="O25" s="315">
+      <c r="O25" s="304">
         <v>1000</v>
       </c>
       <c r="P25" s="269">
@@ -15118,10 +15118,10 @@
       <c r="K26" s="155"/>
       <c r="L26" s="155"/>
       <c r="M26" s="271"/>
-      <c r="N26" s="316">
+      <c r="N26" s="305">
         <v>500</v>
       </c>
-      <c r="O26" s="316">
+      <c r="O26" s="305">
         <v>1000</v>
       </c>
       <c r="P26" s="271">
@@ -15228,10 +15228,10 @@
       <c r="K27" s="272"/>
       <c r="L27" s="272"/>
       <c r="M27" s="273"/>
-      <c r="N27" s="315">
+      <c r="N27" s="304">
         <v>500</v>
       </c>
-      <c r="O27" s="315">
+      <c r="O27" s="304">
         <v>1000</v>
       </c>
       <c r="P27" s="273">
@@ -15338,10 +15338,10 @@
       <c r="K28" s="155"/>
       <c r="L28" s="155"/>
       <c r="M28" s="271"/>
-      <c r="N28" s="316">
+      <c r="N28" s="305">
         <v>500</v>
       </c>
-      <c r="O28" s="316">
+      <c r="O28" s="305">
         <v>1000</v>
       </c>
       <c r="P28" s="271">
@@ -15448,10 +15448,10 @@
       <c r="K29" s="268"/>
       <c r="L29" s="268"/>
       <c r="M29" s="269"/>
-      <c r="N29" s="315">
+      <c r="N29" s="304">
         <v>500</v>
       </c>
-      <c r="O29" s="315">
+      <c r="O29" s="304">
         <v>1000</v>
       </c>
       <c r="P29" s="269">
@@ -15559,10 +15559,10 @@
       <c r="K30" s="270"/>
       <c r="L30" s="270"/>
       <c r="M30" s="248"/>
-      <c r="N30" s="316">
+      <c r="N30" s="305">
         <v>500</v>
       </c>
-      <c r="O30" s="316">
+      <c r="O30" s="305">
         <v>1000</v>
       </c>
       <c r="P30" s="248">
@@ -15669,10 +15669,10 @@
       <c r="K31" s="268"/>
       <c r="L31" s="268"/>
       <c r="M31" s="269"/>
-      <c r="N31" s="315">
+      <c r="N31" s="304">
         <v>500</v>
       </c>
-      <c r="O31" s="315">
+      <c r="O31" s="304">
         <v>1000</v>
       </c>
       <c r="P31" s="269">
@@ -15782,10 +15782,10 @@
       <c r="K32" s="274"/>
       <c r="L32" s="274"/>
       <c r="M32" s="252"/>
-      <c r="N32" s="317">
+      <c r="N32" s="306">
         <v>500</v>
       </c>
-      <c r="O32" s="317">
+      <c r="O32" s="306">
         <v>1000</v>
       </c>
       <c r="P32" s="252">
@@ -15892,10 +15892,10 @@
       <c r="K33" s="275"/>
       <c r="L33" s="275"/>
       <c r="M33" s="253"/>
-      <c r="N33" s="318">
+      <c r="N33" s="307">
         <v>500</v>
       </c>
-      <c r="O33" s="318">
+      <c r="O33" s="307">
         <v>1000</v>
       </c>
       <c r="P33" s="253">
@@ -16003,10 +16003,10 @@
       <c r="K34" s="276"/>
       <c r="L34" s="276"/>
       <c r="M34" s="277"/>
-      <c r="N34" s="319">
+      <c r="N34" s="308">
         <v>500</v>
       </c>
-      <c r="O34" s="319">
+      <c r="O34" s="308">
         <v>1000</v>
       </c>
       <c r="P34" s="277">
